--- a/data/trans_orig/IP07C28_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3926453B-E813-4764-AF74-50C7A4B48211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B1B517-7C94-46E8-881E-39CB35E88683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66032EE1-7E58-4352-9027-B6626E18217E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A55E7F18-26EB-499F-81BA-7B92E4205268}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>26,54%</t>
+    <t>26,97%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>11,16%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -98,19 +98,19 @@
     <t>4,87%</t>
   </si>
   <si>
-    <t>27,84%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>23,17%</t>
+    <t>25,66%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>14,57%</t>
+    <t>19,11%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -119,7 +119,7 @@
     <t>5,02%</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>27,57%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -128,7 +128,7 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>13,29%</t>
+    <t>14,61%</t>
   </si>
   <si>
     <t>Un Poco</t>
@@ -137,418 +137,412 @@
     <t>16,23%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
     <t>0,58%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>78,95%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>59,27%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -963,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CBA850-1A38-4D30-BF7E-15938516AA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585575B6-9F0A-49EF-A8BC-5A8ED2DF68BA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2077,13 +2071,13 @@
         <v>3513</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2092,13 +2086,13 @@
         <v>9059</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2107,13 @@
         <v>4068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2128,10 +2122,10 @@
         <v>1872</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>149</v>
@@ -2146,10 +2140,10 @@
         <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2158,13 @@
         <v>47278</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -2179,13 +2173,13 @@
         <v>42146</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -2194,13 +2188,13 @@
         <v>89424</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2209,13 @@
         <v>209319</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -2230,13 +2224,13 @@
         <v>153327</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>455</v>
@@ -2245,13 +2239,13 @@
         <v>362646</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2301,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C28_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B1B517-7C94-46E8-881E-39CB35E88683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41D73B7-3C7C-48C6-BF76-D175B4F7A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A55E7F18-26EB-499F-81BA-7B92E4205268}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EEE55D53-338C-4D85-88B8-EFA863619798}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,481 +68,433 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Muchísimo</t>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -957,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585575B6-9F0A-49EF-A8BC-5A8ED2DF68BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A077F0-EDBF-4B8C-B1F0-335FA7154825}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1075,10 +1027,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6576</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1090,238 +1042,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>658</v>
+        <v>7798</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>658</v>
+        <v>14374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>824</v>
+        <v>5671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>746</v>
+        <v>5913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>1570</v>
+        <v>11584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>849</v>
+        <v>160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2685</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>849</v>
+        <v>2845</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>4645</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7">
-        <v>12500</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>10606</v>
+        <v>358</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>23105</v>
+        <v>358</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,306 +1282,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7">
-        <v>969</v>
+        <v>81541</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>1029</v>
+        <v>125407</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="N10" s="7">
-        <v>1998</v>
+        <v>206948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>2325</v>
+        <v>74689</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>2171</v>
+        <v>70004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N11" s="7">
-        <v>4496</v>
+        <v>144693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>994</v>
+        <v>3083</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>418</v>
+        <v>5579</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>1412</v>
+        <v>8662</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>37198</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>35310</v>
+        <v>1710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>72508</v>
+        <v>1710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="7">
-        <v>176</v>
-      </c>
-      <c r="D14" s="7">
-        <v>155617</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="7">
-        <v>151</v>
-      </c>
-      <c r="I14" s="7">
-        <v>109161</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="7">
-        <v>327</v>
-      </c>
-      <c r="N14" s="7">
-        <v>264778</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,306 +1590,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>29598</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7">
+        <v>57</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43836</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>100</v>
+      </c>
+      <c r="N16" s="7">
+        <v>73434</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>2397</v>
+        <v>8481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>597</v>
+        <v>8042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>2993</v>
+        <v>16523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2225</v>
+        <v>673</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>815</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="7">
-        <v>1454</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="7">
-        <v>5</v>
-      </c>
       <c r="N18" s="7">
-        <v>3679</v>
+        <v>1488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>7335</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>4937</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>12272</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7">
-        <v>54</v>
-      </c>
-      <c r="D20" s="7">
-        <v>41203</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>33560</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>74763</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +1898,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,253 +1951,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D22" s="7">
-        <v>969</v>
+        <v>117715</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="I22" s="7">
-        <v>1687</v>
+        <v>177040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="N22" s="7">
-        <v>2656</v>
+        <v>294755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
-        <v>5546</v>
+        <v>88841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>3513</v>
+        <v>83959</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="N23" s="7">
-        <v>9059</v>
+        <v>172800</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>4068</v>
+        <v>3916</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>1872</v>
+        <v>9079</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>5940</v>
+        <v>12995</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>47278</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>42146</v>
+        <v>1710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>89424</v>
+        <v>1710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7">
-        <v>245</v>
-      </c>
-      <c r="D26" s="7">
-        <v>209319</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>153327</v>
+        <v>358</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
-        <v>455</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>362646</v>
+        <v>358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,54 +2206,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>270</v>
-      </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
       </c>
       <c r="N27" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
